--- a/Data_storage/Historical_weather.xlsx
+++ b/Data_storage/Historical_weather.xlsx
@@ -1,69 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ruiz17\meteo\Data_storage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17720D5-5C41-4829-B802-B771F23320F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2024" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2027" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>hum</t>
-  </si>
-  <si>
-    <t>pres</t>
-  </si>
-  <si>
-    <t>wind_speed</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,24 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,39 +433,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>temp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>hum</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pres</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>wind_speed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>17:00:02</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E2" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>17:30:02</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E3" t="n">
+        <v>72</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18:00:02</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18:30:03</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1039</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:00:02</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E6" t="n">
+        <v>81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1039</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:34:58</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19:43:59</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>82</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:35:35</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0.24, 0.02, 0.16, 0.64, 3.94, 2.21, 1.48, 1.11, 0.89, 0.74, 0, 0, 0, 0.02, 0.01, 0.01, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:36:58</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>85</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0.24, 0.02, 0.16, 0.64, 3.94, 2.21, 1.48, 1.11, 0.89, 0.74, 0, 0, 0, 0.02, 0.01, 0.01, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:42:40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:49:23</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E12" t="n">
+        <v>85</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:51:37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>85</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:57:39</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>85</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22:04:32</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>85</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_storage/Historical_weather.xlsx
+++ b/Data_storage/Historical_weather.xlsx
@@ -3,13 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-255" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2027" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -438,17 +435,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="10.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="5" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="11.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="12.42578125" customWidth="1" min="4" max="4"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="16.85546875" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,22 +467,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>temp</t>
+          <t>temp (C)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hum</t>
+          <t>precipitation (mm/h)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>pres</t>
+          <t>hum(%)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>wind_speed</t>
+          <t>pres(hPa)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>wind_speed(m/s)</t>
         </is>
       </c>
     </row>
@@ -495,24 +498,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00:02</t>
+          <t>08:00:03</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.87</v>
+        <v>-1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1038</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>1.34</v>
+        <v>1039</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -522,24 +528,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:30:02</t>
+          <t>08:32:15</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.77</v>
+        <v>-1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1038</v>
+        <v>91</v>
       </c>
       <c r="G3" t="n">
-        <v>1.34</v>
+        <v>1040</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -549,24 +558,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00:02</t>
+          <t>09:00:02</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7.21</v>
+        <v>-1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1038</v>
+        <v>91</v>
       </c>
       <c r="G4" t="n">
-        <v>1.88</v>
+        <v>1040</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="5">
@@ -576,24 +588,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:30:03</t>
+          <t>09:22:15</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.44</v>
+        <v>-1.13</v>
       </c>
       <c r="E5" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1039</v>
+        <v>92</v>
       </c>
       <c r="G5" t="n">
-        <v>0.45</v>
+        <v>1040</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="6">
@@ -603,24 +618,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00:02</t>
+          <t>09:30:02</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.77</v>
+        <v>-1.13</v>
       </c>
       <c r="E6" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1039</v>
+        <v>92</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1040</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="7">
@@ -630,24 +648,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:34:58</t>
+          <t>09:39:27</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.32</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1040</v>
+        <v>92</v>
       </c>
       <c r="G7" t="n">
-        <v>0.89</v>
+        <v>1040</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="8">
@@ -657,24 +678,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:43:59</t>
+          <t>09:39:48</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.32</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1040</v>
+        <v>92</v>
       </c>
       <c r="G8" t="n">
-        <v>0.89</v>
+        <v>1040</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="9">
@@ -684,29 +708,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:35:35</t>
+          <t>09:40:06</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.55</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1040</v>
+        <v>92</v>
       </c>
       <c r="G9" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0.24, 0.02, 0.16, 0.64, 3.94, 2.21, 1.48, 1.11, 0.89, 0.74, 0, 0, 0, 0.02, 0.01, 0.01, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
+        <v>1040</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="10">
@@ -716,29 +738,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:36:58</t>
+          <t>09:41:11</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.55</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1040</v>
+        <v>92</v>
       </c>
       <c r="G10" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0.24, 0.02, 0.16, 0.64, 3.94, 2.21, 1.48, 1.11, 0.89, 0.74, 0, 0, 0, 0.02, 0.01, 0.01, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
+        <v>1040</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="11">
@@ -748,29 +768,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:42:40</t>
+          <t>09:42:28</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.55</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1040</v>
+        <v>92</v>
       </c>
       <c r="G11" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
+        <v>1040</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="12">
@@ -780,27 +798,27 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:49:23</t>
+          <t>09:43:16</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.63</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1040</v>
+        <v>92</v>
       </c>
       <c r="G12" t="n">
-        <v>0.89</v>
+        <v>1040</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="13">
@@ -810,21 +828,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:51:37</t>
+          <t>09:57:57</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.63</v>
+        <v>-0.31</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G13" t="n">
         <v>1040</v>
@@ -840,21 +858,21 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:57:39</t>
+          <t>10:00:02</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.63</v>
+        <v>-0.31</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G14" t="n">
         <v>1040</v>
@@ -870,84 +888,270 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>22:04:32</t>
+          <t>10:03:49</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G15" t="n">
         <v>1040</v>
       </c>
       <c r="H15" t="n">
-        <v>0.89</v>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10:04:17</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>92</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10:05:09</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>92</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10:05:47</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>92</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10:06:12</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>92</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10:07:23</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>92</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10:08:58</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>92</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10:09:09</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>92</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10:12:42</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>92</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data_storage/Historical_weather.xlsx
+++ b/Data_storage/Historical_weather.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -942,6 +942,486 @@
         <v>0.45</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:30:02</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>59</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:00:02</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>57</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:30:03</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>56</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00:02</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>57</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:30:02</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>59</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>18:00:03</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>65</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>18:30:02</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>70</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>19:00:02</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>73</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19:30:02</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>76</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20:00:02</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>78</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20:30:02</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>78</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>21:00:02</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>82</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>21:30:02</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>83</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>22:00:02</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>83</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>22:42:25</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>83</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>23:00:06</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>83</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data_storage/Historical_weather.xlsx
+++ b/Data_storage/Historical_weather.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -1422,6 +1422,1236 @@
         <v>0.45</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>23:30:07</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>83</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>17</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>00:00:05</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>57</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>00:30:05</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>58</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>17</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>01:00:05</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>59</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>17</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>01:30:04</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>58</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>17</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>02:00:05</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>58</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>17</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>02:30:05</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>60</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>17</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>03:30:04</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>-3.19</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>88</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>17</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>04:00:09</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>-3.19</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>61</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>17</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>04:30:05</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>61</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>17</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>05:00:05</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>84</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>17</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>05:30:05</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>-2.81</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>84</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>17</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>06:00:05</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>61</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>17</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>06:30:05</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>61</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>17</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>07:00:04</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>58</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>17</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>07:30:05</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>58</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>17</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>08:00:05</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>58</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>17</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>08:30:04</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>-2.19</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>56</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>17</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>09:00:05</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>56</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>17</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>09:30:04</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>53</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>17</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>10:00:05</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>84</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>17</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>10:30:05</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>47</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>17</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>11:00:04</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>47</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>17</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>11:30:05</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>43</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>17</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>12:00:05</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>43</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>17</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>12:30:04</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>76</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1033</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>17</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>13:00:05</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>71</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1032</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>17</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>13:30:05</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>68</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>17</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>14:00:04</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>67</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>17</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>14:30:05</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>65</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>17</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>15:00:05</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>63</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>17</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>15:30:04</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>61</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>17</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>16:00:05</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>60</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>17</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>16:30:04</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>62</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>17</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>17:00:05</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>62</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>17</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>17:30:05</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>64</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>17</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>18:00:05</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>66</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>17</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>18:30:05</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>68</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1030</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>17</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>19:00:04</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>69</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>17</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>19:30:05</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>69</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>17</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>19:40:59</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>70</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data_storage/Historical_weather.xlsx
+++ b/Data_storage/Historical_weather.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -2652,6 +2652,36 @@
         <v>1.34</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>17</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>19:52:08</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>70</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data_storage/Historical_weather.xlsx
+++ b/Data_storage/Historical_weather.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -2633,23 +2633,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>19:40:59</t>
+          <t>20:00:04</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G73" t="n">
         <v>1031</v>
       </c>
       <c r="H73" t="n">
-        <v>1.34</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="74">
@@ -2663,23 +2663,173 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>19:52:08</t>
+          <t>20:30:05</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.13</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G74" t="n">
         <v>1031</v>
       </c>
       <c r="H74" t="n">
-        <v>2.24</v>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>17</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>21:00:05</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>76</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>17</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>21:30:07</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>77</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>17</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>22:00:05</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>78</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>17</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>22:30:04</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>80</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>17</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>23:00:05</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>81</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1031</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>
